--- a/Configs/输出表格模板.xlsx
+++ b/Configs/输出表格模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7395"/>
+    <workbookView windowWidth="19635" windowHeight="7845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -38,8 +38,7 @@
     <t>检索名称</t>
   </si>
   <si>
-    <t>结果
-（需要的为1分，不需要的为0分）</t>
+    <t>发布时间</t>
   </si>
   <si>
     <t>重要性</t>
@@ -934,7 +933,7 @@
   <dimension ref="A1:G200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/Configs/输出表格模板.xlsx
+++ b/Configs/输出表格模板.xlsx
@@ -32,7 +32,7 @@
     <t>关键词</t>
   </si>
   <si>
-    <t>序号</t>
+    <t>ID</t>
   </si>
   <si>
     <t>检索名称</t>
@@ -933,7 +933,7 @@
   <dimension ref="A1:G200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
